--- a/NEW HR/DONE/MULINGTAPANG, GUILLERMA.xlsx
+++ b/NEW HR/DONE/MULINGTAPANG, GUILLERMA.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DESKTOP-JHL336T\Users\ASUS\Desktop\LEAVE-CARD\NEW HR\DONE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DOLE\Desktop\LEAVE-CARD\NEW HR\DONE\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="66">
   <si>
     <t>PERIOD</t>
   </si>
@@ -228,6 +228,12 @@
   </si>
   <si>
     <t>5/3-5/2023</t>
+  </si>
+  <si>
+    <t>5/11,12/2023</t>
+  </si>
+  <si>
+    <t>CCT</t>
   </si>
 </sst>
 </file>
@@ -612,17 +618,14 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -632,6 +635,9 @@
     </xf>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1554,14 +1560,14 @@
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="54"/>
-      <c r="G2" s="54"/>
+      <c r="F2" s="51"/>
+      <c r="G2" s="51"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="51"/>
-      <c r="K2" s="52"/>
+      <c r="J2" s="52"/>
+      <c r="K2" s="53"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
@@ -1572,16 +1578,16 @@
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="55">
+      <c r="F3" s="54">
         <v>42552</v>
       </c>
-      <c r="G3" s="51"/>
+      <c r="G3" s="52"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="56"/>
-      <c r="K3" s="57"/>
+      <c r="J3" s="55"/>
+      <c r="K3" s="56"/>
     </row>
     <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
@@ -1594,14 +1600,14 @@
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="51"/>
-      <c r="G4" s="51"/>
+      <c r="F4" s="52"/>
+      <c r="G4" s="52"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="51"/>
-      <c r="K4" s="52"/>
+      <c r="J4" s="52"/>
+      <c r="K4" s="53"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
@@ -1627,18 +1633,18 @@
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="53" t="s">
+      <c r="C7" s="57" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="53"/>
-      <c r="E7" s="53"/>
-      <c r="F7" s="53"/>
-      <c r="G7" s="53" t="s">
+      <c r="D7" s="57"/>
+      <c r="E7" s="57"/>
+      <c r="F7" s="57"/>
+      <c r="G7" s="57" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="53"/>
-      <c r="I7" s="53"/>
-      <c r="J7" s="53"/>
+      <c r="H7" s="57"/>
+      <c r="I7" s="57"/>
+      <c r="J7" s="57"/>
       <c r="K7" s="14"/>
     </row>
     <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -3914,17 +3920,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="G7:J7"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="J3:K3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="G7:J7"/>
   </mergeCells>
   <dataValidations disablePrompts="1" count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
@@ -3961,8 +3967,8 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3690" topLeftCell="A7" activePane="bottomLeft"/>
-      <selection activeCell="B4" sqref="B4:C4"/>
-      <selection pane="bottomLeft" activeCell="B19" sqref="B19"/>
+      <selection activeCell="F4" sqref="F4:G4"/>
+      <selection pane="bottomLeft" activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3992,14 +3998,14 @@
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="54"/>
-      <c r="G2" s="54"/>
+      <c r="F2" s="51"/>
+      <c r="G2" s="51"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="51"/>
-      <c r="K2" s="52"/>
+      <c r="J2" s="52"/>
+      <c r="K2" s="53"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
@@ -4010,16 +4016,16 @@
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="55">
+      <c r="F3" s="54">
         <v>42552</v>
       </c>
-      <c r="G3" s="51"/>
+      <c r="G3" s="52"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="56"/>
-      <c r="K3" s="57"/>
+      <c r="J3" s="55"/>
+      <c r="K3" s="56"/>
     </row>
     <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
@@ -4032,14 +4038,16 @@
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="51"/>
-      <c r="G4" s="51"/>
+      <c r="F4" s="52" t="s">
+        <v>65</v>
+      </c>
+      <c r="G4" s="52"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="51"/>
-      <c r="K4" s="52"/>
+      <c r="J4" s="52"/>
+      <c r="K4" s="53"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
@@ -4065,18 +4073,18 @@
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="53" t="s">
+      <c r="C7" s="57" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="53"/>
-      <c r="E7" s="53"/>
-      <c r="F7" s="53"/>
-      <c r="G7" s="53" t="s">
+      <c r="D7" s="57"/>
+      <c r="E7" s="57"/>
+      <c r="F7" s="57"/>
+      <c r="G7" s="57" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="53"/>
-      <c r="I7" s="53"/>
-      <c r="J7" s="53"/>
+      <c r="H7" s="57"/>
+      <c r="I7" s="57"/>
+      <c r="J7" s="57"/>
       <c r="K7" s="14"/>
     </row>
     <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -4133,7 +4141,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>57.5</v>
+        <v>55.5</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -4338,7 +4346,9 @@
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="40"/>
-      <c r="B19" s="20"/>
+      <c r="B19" s="20" t="s">
+        <v>52</v>
+      </c>
       <c r="C19" s="13"/>
       <c r="D19" s="39"/>
       <c r="E19" s="9"/>
@@ -4347,10 +4357,14 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H19" s="39"/>
+      <c r="H19" s="39">
+        <v>2</v>
+      </c>
       <c r="I19" s="9"/>
       <c r="J19" s="11"/>
-      <c r="K19" s="20"/>
+      <c r="K19" s="49" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="40"/>

--- a/NEW HR/DONE/MULINGTAPANG, GUILLERMA.xlsx
+++ b/NEW HR/DONE/MULINGTAPANG, GUILLERMA.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DOLE\Desktop\LEAVE-CARD\NEW HR\DONE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DESKTOP-JHL336T\Users\ASUS\Desktop\LEAVE-CARD\NEW HR\DONE\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="68">
   <si>
     <t>PERIOD</t>
   </si>
@@ -234,6 +234,12 @@
   </si>
   <si>
     <t>CCT</t>
+  </si>
+  <si>
+    <t>VL(10-0-0)</t>
+  </si>
+  <si>
+    <t>5/1,2,8,9,15,16,22,23,29,30/2023</t>
   </si>
 </sst>
 </file>
@@ -246,7 +252,7 @@
     <numFmt numFmtId="166" formatCode="###\-###\-###"/>
     <numFmt numFmtId="167" formatCode="dd"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -280,6 +286,13 @@
     <font>
       <b/>
       <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -470,7 +483,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -618,14 +631,17 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -636,9 +652,6 @@
     <xf numFmtId="166" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -647,6 +660,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1560,14 +1576,14 @@
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="51"/>
-      <c r="G2" s="51"/>
+      <c r="F2" s="54"/>
+      <c r="G2" s="54"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="52"/>
-      <c r="K2" s="53"/>
+      <c r="J2" s="51"/>
+      <c r="K2" s="52"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
@@ -1578,16 +1594,16 @@
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="54">
+      <c r="F3" s="55">
         <v>42552</v>
       </c>
-      <c r="G3" s="52"/>
+      <c r="G3" s="51"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="55"/>
-      <c r="K3" s="56"/>
+      <c r="J3" s="56"/>
+      <c r="K3" s="57"/>
     </row>
     <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
@@ -1600,14 +1616,14 @@
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="52"/>
-      <c r="G4" s="52"/>
+      <c r="F4" s="51"/>
+      <c r="G4" s="51"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="52"/>
-      <c r="K4" s="53"/>
+      <c r="J4" s="51"/>
+      <c r="K4" s="52"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
@@ -1633,18 +1649,18 @@
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="57" t="s">
+      <c r="C7" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="57"/>
-      <c r="E7" s="57"/>
-      <c r="F7" s="57"/>
-      <c r="G7" s="57" t="s">
+      <c r="D7" s="53"/>
+      <c r="E7" s="53"/>
+      <c r="F7" s="53"/>
+      <c r="G7" s="53" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="57"/>
-      <c r="I7" s="57"/>
-      <c r="J7" s="57"/>
+      <c r="H7" s="53"/>
+      <c r="I7" s="53"/>
+      <c r="J7" s="53"/>
       <c r="K7" s="14"/>
     </row>
     <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -3920,17 +3936,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="G7:J7"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="J3:K3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="G7:J7"/>
   </mergeCells>
   <dataValidations disablePrompts="1" count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
@@ -3968,7 +3984,7 @@
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3690" topLeftCell="A7" activePane="bottomLeft"/>
       <selection activeCell="F4" sqref="F4:G4"/>
-      <selection pane="bottomLeft" activeCell="G11" sqref="G11"/>
+      <selection pane="bottomLeft" activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3998,14 +4014,14 @@
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="51"/>
-      <c r="G2" s="51"/>
+      <c r="F2" s="54"/>
+      <c r="G2" s="54"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="52"/>
-      <c r="K2" s="53"/>
+      <c r="J2" s="51"/>
+      <c r="K2" s="52"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
@@ -4016,16 +4032,16 @@
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="54">
+      <c r="F3" s="55">
         <v>42552</v>
       </c>
-      <c r="G3" s="52"/>
+      <c r="G3" s="51"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="55"/>
-      <c r="K3" s="56"/>
+      <c r="J3" s="56"/>
+      <c r="K3" s="57"/>
     </row>
     <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
@@ -4038,16 +4054,16 @@
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="52" t="s">
+      <c r="F4" s="51" t="s">
         <v>65</v>
       </c>
-      <c r="G4" s="52"/>
+      <c r="G4" s="51"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="52"/>
-      <c r="K4" s="53"/>
+      <c r="J4" s="51"/>
+      <c r="K4" s="52"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
@@ -4073,18 +4089,18 @@
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="57" t="s">
+      <c r="C7" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="57"/>
-      <c r="E7" s="57"/>
-      <c r="F7" s="57"/>
-      <c r="G7" s="57" t="s">
+      <c r="D7" s="53"/>
+      <c r="E7" s="53"/>
+      <c r="F7" s="53"/>
+      <c r="G7" s="53" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="57"/>
-      <c r="I7" s="57"/>
-      <c r="J7" s="57"/>
+      <c r="H7" s="53"/>
+      <c r="I7" s="53"/>
+      <c r="J7" s="53"/>
       <c r="K7" s="14"/>
     </row>
     <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -4131,7 +4147,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>58.478999999999999</v>
+        <v>48.478999999999999</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -4368,9 +4384,13 @@
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="40"/>
-      <c r="B20" s="20"/>
+      <c r="B20" s="20" t="s">
+        <v>66</v>
+      </c>
       <c r="C20" s="13"/>
-      <c r="D20" s="39"/>
+      <c r="D20" s="39">
+        <v>10</v>
+      </c>
       <c r="E20" s="9"/>
       <c r="F20" s="20"/>
       <c r="G20" s="13" t="str">
@@ -4380,7 +4400,9 @@
       <c r="H20" s="39"/>
       <c r="I20" s="9"/>
       <c r="J20" s="11"/>
-      <c r="K20" s="20"/>
+      <c r="K20" s="61" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="40"/>

--- a/NEW HR/DONE/MULINGTAPANG, GUILLERMA.xlsx
+++ b/NEW HR/DONE/MULINGTAPANG, GUILLERMA.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26501"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DESKTOP-JHL336T\Users\ASUS\Desktop\LEAVE-CARD\NEW HR\DONE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVE-CARD\NEW HR\DONE\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43D8459C-8A9D-4963-B50B-1B3A09AA38BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="1"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2018 LEAVE CREDITS" sheetId="4" r:id="rId1"/>
@@ -26,7 +27,7 @@
     <definedName name="_xlnm.Print_Titles" localSheetId="1">'2017 LEAVE BALANCE'!$1:$9</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">'2018 LEAVE CREDITS'!$1:$9</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="70">
   <si>
     <t>PERIOD</t>
   </si>
@@ -240,12 +241,18 @@
   </si>
   <si>
     <t>5/1,2,8,9,15,16,22,23,29,30/2023</t>
+  </si>
+  <si>
+    <t>VL(8-0-0)</t>
+  </si>
+  <si>
+    <t>7/6-7, 13-14,20-21/2023</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yy;@"/>
@@ -628,20 +635,20 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -652,6 +659,9 @@
     <xf numFmtId="166" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -660,9 +670,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1165,7 +1172,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Sheet1"/>
@@ -1182,25 +1189,25 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table13" displayName="Table13" ref="A8:K128" totalsRowShown="0" headerRowDxfId="29" headerRowBorderDxfId="28" tableBorderDxfId="27" totalsRowBorderDxfId="26">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table13" displayName="Table13" ref="A8:K128" totalsRowShown="0" headerRowDxfId="29" headerRowBorderDxfId="28" tableBorderDxfId="27" totalsRowBorderDxfId="26">
   <tableColumns count="11">
-    <tableColumn id="1" name="PERIOD" dataDxfId="25"/>
-    <tableColumn id="2" name="PARTICULARS" dataDxfId="24"/>
-    <tableColumn id="3" name="EARNED" dataDxfId="23"/>
-    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="22"/>
-    <tableColumn id="5" name="BALANCE" dataDxfId="21">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="PERIOD" dataDxfId="25"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="PARTICULARS" dataDxfId="24"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="EARNED" dataDxfId="23"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="22"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="BALANCE" dataDxfId="21">
       <calculatedColumnFormula>SUM(Table13[EARNED])-SUM(Table13[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="20"/>
-    <tableColumn id="7" name="EARNED " dataDxfId="19">
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="20"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="EARNED " dataDxfId="19">
       <calculatedColumnFormula>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="18"/>
-    <tableColumn id="9" name="BALANCE " dataDxfId="17">
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="18"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="BALANCE " dataDxfId="17">
       <calculatedColumnFormula>SUM(Table13[[EARNED ]])-SUM(Table13[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="16"/>
-    <tableColumn id="11" name="REMARKS" dataDxfId="15"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="16"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="REMARKS" dataDxfId="15"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -1212,25 +1219,25 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K68" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table1" displayName="Table1" ref="A8:K68" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
   <tableColumns count="11">
-    <tableColumn id="1" name="PERIOD" dataDxfId="10"/>
-    <tableColumn id="2" name="PARTICULARS" dataDxfId="9"/>
-    <tableColumn id="3" name="EARNED" dataDxfId="8"/>
-    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="7"/>
-    <tableColumn id="5" name="BALANCE" dataDxfId="6">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="PERIOD" dataDxfId="10"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="PARTICULARS" dataDxfId="9"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="EARNED" dataDxfId="8"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="7"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="BALANCE" dataDxfId="6">
       <calculatedColumnFormula>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="5"/>
-    <tableColumn id="7" name="EARNED " dataDxfId="4">
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="5"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0100-000007000000}" name="EARNED " dataDxfId="4">
       <calculatedColumnFormula>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
-    <tableColumn id="9" name="BALANCE " dataDxfId="2">
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0100-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0100-000009000000}" name="BALANCE " dataDxfId="2">
       <calculatedColumnFormula>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
-    <tableColumn id="11" name="REMARKS" dataDxfId="0"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0100-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0100-00000B000000}" name="REMARKS" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -1537,67 +1544,67 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A2:K128"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3690" topLeftCell="A66" activePane="bottomLeft"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="3696" topLeftCell="A69" activePane="bottomLeft"/>
       <selection activeCell="B4" sqref="B4:C4"/>
-      <selection pane="bottomLeft" activeCell="A81" sqref="A81"/>
+      <selection pane="bottomLeft" activeCell="C79" sqref="C79:C80"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.140625" style="30" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.140625" style="30" customWidth="1"/>
-    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.85546875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.109375" style="30" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.109375" style="30" customWidth="1"/>
+    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.6640625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="50" t="s">
+      <c r="B2" s="51" t="s">
         <v>42</v>
       </c>
-      <c r="C2" s="50"/>
+      <c r="C2" s="51"/>
       <c r="D2" s="21" t="s">
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="54"/>
-      <c r="G2" s="54"/>
+      <c r="F2" s="52"/>
+      <c r="G2" s="52"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="51"/>
-      <c r="K2" s="52"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J2" s="53"/>
+      <c r="K2" s="54"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="50"/>
-      <c r="C3" s="50"/>
+      <c r="B3" s="51"/>
+      <c r="C3" s="51"/>
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
       <c r="F3" s="55">
         <v>42552</v>
       </c>
-      <c r="G3" s="51"/>
+      <c r="G3" s="53"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
@@ -1605,27 +1612,27 @@
       <c r="J3" s="56"/>
       <c r="K3" s="57"/>
     </row>
-    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="50" t="s">
+      <c r="B4" s="51" t="s">
         <v>43</v>
       </c>
-      <c r="C4" s="50"/>
+      <c r="C4" s="51"/>
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="51"/>
-      <c r="G4" s="51"/>
+      <c r="F4" s="53"/>
+      <c r="G4" s="53"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="51"/>
-      <c r="K4" s="52"/>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J4" s="53"/>
+      <c r="K4" s="54"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="16"/>
       <c r="H5" s="27" t="s">
         <v>18</v>
@@ -1633,7 +1640,7 @@
       <c r="I5" s="27"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="31"/>
@@ -1646,24 +1653,24 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="53" t="s">
+      <c r="C7" s="58" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="53"/>
-      <c r="E7" s="53"/>
-      <c r="F7" s="53"/>
-      <c r="G7" s="53" t="s">
+      <c r="D7" s="58"/>
+      <c r="E7" s="58"/>
+      <c r="F7" s="58"/>
+      <c r="G7" s="58" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="53"/>
-      <c r="I7" s="53"/>
-      <c r="J7" s="53"/>
+      <c r="H7" s="58"/>
+      <c r="I7" s="58"/>
+      <c r="J7" s="58"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -1698,7 +1705,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="23"/>
       <c r="B9" s="24" t="s">
         <v>23</v>
@@ -1707,7 +1714,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table13[EARNED])-SUM(Table13[Absence Undertime W/ Pay])</f>
-        <v>55</v>
+        <v>56.25</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -1717,12 +1724,12 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table13[[EARNED ]])-SUM(Table13[Absence Undertime  W/ Pay])</f>
-        <v>80</v>
+        <v>81.25</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="48" t="s">
         <v>44</v>
       </c>
@@ -1744,7 +1751,7 @@
       <c r="J10" s="11"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="40">
         <v>43101</v>
       </c>
@@ -1764,7 +1771,7 @@
       <c r="J11" s="11"/>
       <c r="K11" s="20"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="40">
         <v>43132</v>
       </c>
@@ -1784,7 +1791,7 @@
       <c r="J12" s="11"/>
       <c r="K12" s="20"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="40">
         <v>43160</v>
       </c>
@@ -1804,7 +1811,7 @@
       <c r="J13" s="11"/>
       <c r="K13" s="20"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="40">
         <v>43191</v>
       </c>
@@ -1824,7 +1831,7 @@
       <c r="J14" s="11"/>
       <c r="K14" s="20"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="40">
         <v>43221</v>
       </c>
@@ -1844,7 +1851,7 @@
       <c r="J15" s="11"/>
       <c r="K15" s="20"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="40">
         <v>43252</v>
       </c>
@@ -1864,7 +1871,7 @@
       <c r="J16" s="12"/>
       <c r="K16" s="15"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="40">
         <v>43282</v>
       </c>
@@ -1884,7 +1891,7 @@
       <c r="J17" s="11"/>
       <c r="K17" s="20"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="40">
         <v>43313</v>
       </c>
@@ -1904,7 +1911,7 @@
       <c r="J18" s="11"/>
       <c r="K18" s="20"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="40">
         <v>43344</v>
       </c>
@@ -1924,7 +1931,7 @@
       <c r="J19" s="11"/>
       <c r="K19" s="20"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" s="40">
         <v>43374</v>
       </c>
@@ -1944,7 +1951,7 @@
       <c r="J20" s="11"/>
       <c r="K20" s="20"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" s="40">
         <v>43405</v>
       </c>
@@ -1964,7 +1971,7 @@
       <c r="J21" s="11"/>
       <c r="K21" s="20"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" s="40">
         <v>43435</v>
       </c>
@@ -1988,7 +1995,7 @@
       <c r="J22" s="11"/>
       <c r="K22" s="20"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" s="48" t="s">
         <v>45</v>
       </c>
@@ -2006,7 +2013,7 @@
       <c r="J23" s="11"/>
       <c r="K23" s="20"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" s="40">
         <v>43466</v>
       </c>
@@ -2026,7 +2033,7 @@
       <c r="J24" s="11"/>
       <c r="K24" s="20"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" s="40">
         <v>43497</v>
       </c>
@@ -2046,7 +2053,7 @@
       <c r="J25" s="11"/>
       <c r="K25" s="20"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" s="40">
         <v>43525</v>
       </c>
@@ -2066,7 +2073,7 @@
       <c r="J26" s="11"/>
       <c r="K26" s="20"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" s="40">
         <v>43556</v>
       </c>
@@ -2086,7 +2093,7 @@
       <c r="J27" s="11"/>
       <c r="K27" s="20"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" s="40">
         <v>43586</v>
       </c>
@@ -2106,7 +2113,7 @@
       <c r="J28" s="11"/>
       <c r="K28" s="20"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" s="40">
         <v>43617</v>
       </c>
@@ -2126,7 +2133,7 @@
       <c r="J29" s="11"/>
       <c r="K29" s="20"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30" s="40">
         <v>43647</v>
       </c>
@@ -2146,7 +2153,7 @@
       <c r="J30" s="11"/>
       <c r="K30" s="20"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31" s="40">
         <v>43678</v>
       </c>
@@ -2166,7 +2173,7 @@
       <c r="J31" s="11"/>
       <c r="K31" s="20"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32" s="40">
         <v>43709</v>
       </c>
@@ -2186,7 +2193,7 @@
       <c r="J32" s="11"/>
       <c r="K32" s="20"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33" s="40">
         <v>43739</v>
       </c>
@@ -2206,7 +2213,7 @@
       <c r="J33" s="11"/>
       <c r="K33" s="20"/>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34" s="40">
         <v>43770</v>
       </c>
@@ -2226,7 +2233,7 @@
       <c r="J34" s="11"/>
       <c r="K34" s="20"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35" s="40">
         <v>43800</v>
       </c>
@@ -2250,7 +2257,7 @@
       <c r="J35" s="11"/>
       <c r="K35" s="20"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36" s="48" t="s">
         <v>46</v>
       </c>
@@ -2268,7 +2275,7 @@
       <c r="J36" s="11"/>
       <c r="K36" s="20"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A37" s="40">
         <v>43831</v>
       </c>
@@ -2288,7 +2295,7 @@
       <c r="J37" s="11"/>
       <c r="K37" s="20"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A38" s="40">
         <v>43862</v>
       </c>
@@ -2308,7 +2315,7 @@
       <c r="J38" s="11"/>
       <c r="K38" s="20"/>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A39" s="40">
         <v>43891</v>
       </c>
@@ -2328,7 +2335,7 @@
       <c r="J39" s="11"/>
       <c r="K39" s="20"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A40" s="40">
         <v>43922</v>
       </c>
@@ -2348,7 +2355,7 @@
       <c r="J40" s="11"/>
       <c r="K40" s="20"/>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A41" s="40">
         <v>43952</v>
       </c>
@@ -2368,7 +2375,7 @@
       <c r="J41" s="11"/>
       <c r="K41" s="20"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A42" s="40">
         <v>43983</v>
       </c>
@@ -2388,7 +2395,7 @@
       <c r="J42" s="11"/>
       <c r="K42" s="20"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A43" s="40">
         <v>44013</v>
       </c>
@@ -2408,7 +2415,7 @@
       <c r="J43" s="11"/>
       <c r="K43" s="20"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A44" s="40">
         <v>44044</v>
       </c>
@@ -2428,7 +2435,7 @@
       <c r="J44" s="11"/>
       <c r="K44" s="20"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A45" s="40">
         <v>44075</v>
       </c>
@@ -2448,7 +2455,7 @@
       <c r="J45" s="11"/>
       <c r="K45" s="20"/>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A46" s="40">
         <v>44105</v>
       </c>
@@ -2468,7 +2475,7 @@
       <c r="J46" s="11"/>
       <c r="K46" s="20"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A47" s="40">
         <v>44136</v>
       </c>
@@ -2488,7 +2495,7 @@
       <c r="J47" s="11"/>
       <c r="K47" s="20"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A48" s="40">
         <v>44166</v>
       </c>
@@ -2512,7 +2519,7 @@
       <c r="J48" s="11"/>
       <c r="K48" s="20"/>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A49" s="48" t="s">
         <v>47</v>
       </c>
@@ -2530,7 +2537,7 @@
       <c r="J49" s="11"/>
       <c r="K49" s="20"/>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A50" s="40">
         <v>44197</v>
       </c>
@@ -2550,7 +2557,7 @@
       <c r="J50" s="11"/>
       <c r="K50" s="20"/>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A51" s="40">
         <v>44228</v>
       </c>
@@ -2570,7 +2577,7 @@
       <c r="J51" s="11"/>
       <c r="K51" s="20"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A52" s="40">
         <v>44256</v>
       </c>
@@ -2590,7 +2597,7 @@
       <c r="J52" s="11"/>
       <c r="K52" s="20"/>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A53" s="40">
         <v>44287</v>
       </c>
@@ -2610,7 +2617,7 @@
       <c r="J53" s="11"/>
       <c r="K53" s="20"/>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A54" s="40">
         <v>44317</v>
       </c>
@@ -2630,7 +2637,7 @@
       <c r="J54" s="11"/>
       <c r="K54" s="20"/>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A55" s="40">
         <v>44348</v>
       </c>
@@ -2650,7 +2657,7 @@
       <c r="J55" s="11"/>
       <c r="K55" s="20"/>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A56" s="40">
         <v>44378</v>
       </c>
@@ -2670,7 +2677,7 @@
       <c r="J56" s="11"/>
       <c r="K56" s="20"/>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A57" s="40">
         <v>44409</v>
       </c>
@@ -2690,7 +2697,7 @@
       <c r="J57" s="11"/>
       <c r="K57" s="20"/>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A58" s="40">
         <v>44440</v>
       </c>
@@ -2710,7 +2717,7 @@
       <c r="J58" s="11"/>
       <c r="K58" s="20"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A59" s="40">
         <v>44470</v>
       </c>
@@ -2730,7 +2737,7 @@
       <c r="J59" s="11"/>
       <c r="K59" s="20"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A60" s="40">
         <v>44501</v>
       </c>
@@ -2750,7 +2757,7 @@
       <c r="J60" s="11"/>
       <c r="K60" s="20"/>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A61" s="40">
         <v>44531</v>
       </c>
@@ -2774,7 +2781,7 @@
       <c r="J61" s="11"/>
       <c r="K61" s="20"/>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A62" s="48" t="s">
         <v>48</v>
       </c>
@@ -2792,7 +2799,7 @@
       <c r="J62" s="11"/>
       <c r="K62" s="20"/>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A63" s="40">
         <v>44562</v>
       </c>
@@ -2812,7 +2819,7 @@
       <c r="J63" s="11"/>
       <c r="K63" s="20"/>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A64" s="40">
         <v>44593</v>
       </c>
@@ -2832,7 +2839,7 @@
       <c r="J64" s="11"/>
       <c r="K64" s="20"/>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A65" s="40">
         <v>44621</v>
       </c>
@@ -2852,7 +2859,7 @@
       <c r="J65" s="11"/>
       <c r="K65" s="20"/>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A66" s="40">
         <v>44652</v>
       </c>
@@ -2872,7 +2879,7 @@
       <c r="J66" s="11"/>
       <c r="K66" s="20"/>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A67" s="40">
         <v>44682</v>
       </c>
@@ -2892,7 +2899,7 @@
       <c r="J67" s="11"/>
       <c r="K67" s="20"/>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A68" s="40">
         <v>44713</v>
       </c>
@@ -2912,7 +2919,7 @@
       <c r="J68" s="11"/>
       <c r="K68" s="49"/>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A69" s="40">
         <v>44743</v>
       </c>
@@ -2932,7 +2939,7 @@
       <c r="J69" s="11"/>
       <c r="K69" s="20"/>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A70" s="40">
         <v>44774</v>
       </c>
@@ -2958,7 +2965,7 @@
         <v>44803</v>
       </c>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A71" s="40">
         <v>44805</v>
       </c>
@@ -2978,7 +2985,7 @@
       <c r="J71" s="11"/>
       <c r="K71" s="20"/>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A72" s="40">
         <v>44835</v>
       </c>
@@ -2998,7 +3005,7 @@
       <c r="J72" s="11"/>
       <c r="K72" s="49"/>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A73" s="40">
         <v>44866</v>
       </c>
@@ -3024,7 +3031,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A74" s="40">
         <v>44896</v>
       </c>
@@ -3050,7 +3057,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A75" s="48" t="s">
         <v>59</v>
       </c>
@@ -3068,7 +3075,7 @@
       <c r="J75" s="11"/>
       <c r="K75" s="20"/>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A76" s="40">
         <v>44927</v>
       </c>
@@ -3088,7 +3095,7 @@
       <c r="J76" s="11"/>
       <c r="K76" s="20"/>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A77" s="40">
         <v>44958</v>
       </c>
@@ -3108,7 +3115,7 @@
       <c r="J77" s="11"/>
       <c r="K77" s="20"/>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A78" s="40">
         <v>44986</v>
       </c>
@@ -3128,7 +3135,7 @@
       <c r="J78" s="11"/>
       <c r="K78" s="20"/>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A79" s="40">
         <v>45017</v>
       </c>
@@ -3148,25 +3155,27 @@
       <c r="J79" s="11"/>
       <c r="K79" s="20"/>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A80" s="40">
         <v>45047</v>
       </c>
       <c r="B80" s="20"/>
-      <c r="C80" s="13"/>
+      <c r="C80" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D80" s="39"/>
       <c r="E80" s="9"/>
       <c r="F80" s="20"/>
-      <c r="G80" s="13" t="str">
-        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G80" s="13">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H80" s="39"/>
       <c r="I80" s="9"/>
       <c r="J80" s="11"/>
       <c r="K80" s="20"/>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A81" s="40"/>
       <c r="B81" s="20"/>
       <c r="C81" s="13"/>
@@ -3182,7 +3191,7 @@
       <c r="J81" s="11"/>
       <c r="K81" s="20"/>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A82" s="40"/>
       <c r="B82" s="20"/>
       <c r="C82" s="13"/>
@@ -3198,7 +3207,7 @@
       <c r="J82" s="11"/>
       <c r="K82" s="20"/>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A83" s="40"/>
       <c r="B83" s="20"/>
       <c r="C83" s="13"/>
@@ -3214,7 +3223,7 @@
       <c r="J83" s="11"/>
       <c r="K83" s="20"/>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A84" s="40"/>
       <c r="B84" s="20"/>
       <c r="C84" s="13"/>
@@ -3230,7 +3239,7 @@
       <c r="J84" s="11"/>
       <c r="K84" s="20"/>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A85" s="40"/>
       <c r="B85" s="20"/>
       <c r="C85" s="13"/>
@@ -3246,7 +3255,7 @@
       <c r="J85" s="11"/>
       <c r="K85" s="20"/>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A86" s="40"/>
       <c r="B86" s="20"/>
       <c r="C86" s="13"/>
@@ -3262,7 +3271,7 @@
       <c r="J86" s="11"/>
       <c r="K86" s="20"/>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A87" s="40"/>
       <c r="B87" s="20"/>
       <c r="C87" s="13"/>
@@ -3278,7 +3287,7 @@
       <c r="J87" s="11"/>
       <c r="K87" s="20"/>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A88" s="40"/>
       <c r="B88" s="20"/>
       <c r="C88" s="13"/>
@@ -3294,7 +3303,7 @@
       <c r="J88" s="11"/>
       <c r="K88" s="20"/>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A89" s="40"/>
       <c r="B89" s="20"/>
       <c r="C89" s="13"/>
@@ -3310,7 +3319,7 @@
       <c r="J89" s="11"/>
       <c r="K89" s="20"/>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A90" s="40"/>
       <c r="B90" s="20"/>
       <c r="C90" s="13"/>
@@ -3326,7 +3335,7 @@
       <c r="J90" s="11"/>
       <c r="K90" s="20"/>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A91" s="40"/>
       <c r="B91" s="20"/>
       <c r="C91" s="13"/>
@@ -3342,7 +3351,7 @@
       <c r="J91" s="11"/>
       <c r="K91" s="20"/>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A92" s="40"/>
       <c r="B92" s="20"/>
       <c r="C92" s="13"/>
@@ -3358,7 +3367,7 @@
       <c r="J92" s="11"/>
       <c r="K92" s="20"/>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A93" s="40"/>
       <c r="B93" s="20"/>
       <c r="C93" s="13"/>
@@ -3374,7 +3383,7 @@
       <c r="J93" s="11"/>
       <c r="K93" s="20"/>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A94" s="40"/>
       <c r="B94" s="20"/>
       <c r="C94" s="13"/>
@@ -3390,7 +3399,7 @@
       <c r="J94" s="11"/>
       <c r="K94" s="20"/>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A95" s="40"/>
       <c r="B95" s="20"/>
       <c r="C95" s="13"/>
@@ -3406,7 +3415,7 @@
       <c r="J95" s="11"/>
       <c r="K95" s="20"/>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A96" s="40"/>
       <c r="B96" s="20"/>
       <c r="C96" s="13"/>
@@ -3422,7 +3431,7 @@
       <c r="J96" s="11"/>
       <c r="K96" s="20"/>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A97" s="40"/>
       <c r="B97" s="20"/>
       <c r="C97" s="13"/>
@@ -3438,7 +3447,7 @@
       <c r="J97" s="11"/>
       <c r="K97" s="20"/>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A98" s="40"/>
       <c r="B98" s="20"/>
       <c r="C98" s="13"/>
@@ -3454,7 +3463,7 @@
       <c r="J98" s="11"/>
       <c r="K98" s="20"/>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A99" s="40"/>
       <c r="B99" s="20"/>
       <c r="C99" s="13"/>
@@ -3470,7 +3479,7 @@
       <c r="J99" s="11"/>
       <c r="K99" s="20"/>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A100" s="40"/>
       <c r="B100" s="20"/>
       <c r="C100" s="13"/>
@@ -3486,7 +3495,7 @@
       <c r="J100" s="11"/>
       <c r="K100" s="20"/>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A101" s="40"/>
       <c r="B101" s="20"/>
       <c r="C101" s="13"/>
@@ -3502,7 +3511,7 @@
       <c r="J101" s="11"/>
       <c r="K101" s="20"/>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A102" s="40"/>
       <c r="B102" s="20"/>
       <c r="C102" s="13"/>
@@ -3518,7 +3527,7 @@
       <c r="J102" s="11"/>
       <c r="K102" s="20"/>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A103" s="40"/>
       <c r="B103" s="20"/>
       <c r="C103" s="13"/>
@@ -3534,7 +3543,7 @@
       <c r="J103" s="11"/>
       <c r="K103" s="20"/>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A104" s="40"/>
       <c r="B104" s="20"/>
       <c r="C104" s="13"/>
@@ -3550,7 +3559,7 @@
       <c r="J104" s="11"/>
       <c r="K104" s="20"/>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A105" s="40"/>
       <c r="B105" s="20"/>
       <c r="C105" s="13"/>
@@ -3566,7 +3575,7 @@
       <c r="J105" s="11"/>
       <c r="K105" s="20"/>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A106" s="40"/>
       <c r="B106" s="20"/>
       <c r="C106" s="13"/>
@@ -3582,7 +3591,7 @@
       <c r="J106" s="11"/>
       <c r="K106" s="20"/>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A107" s="40"/>
       <c r="B107" s="20"/>
       <c r="C107" s="13"/>
@@ -3598,7 +3607,7 @@
       <c r="J107" s="11"/>
       <c r="K107" s="20"/>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A108" s="40"/>
       <c r="B108" s="20"/>
       <c r="C108" s="13"/>
@@ -3614,7 +3623,7 @@
       <c r="J108" s="11"/>
       <c r="K108" s="20"/>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A109" s="40"/>
       <c r="B109" s="20"/>
       <c r="C109" s="13"/>
@@ -3630,7 +3639,7 @@
       <c r="J109" s="11"/>
       <c r="K109" s="20"/>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A110" s="40"/>
       <c r="B110" s="20"/>
       <c r="C110" s="13"/>
@@ -3646,7 +3655,7 @@
       <c r="J110" s="11"/>
       <c r="K110" s="20"/>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A111" s="40"/>
       <c r="B111" s="20"/>
       <c r="C111" s="13"/>
@@ -3662,7 +3671,7 @@
       <c r="J111" s="11"/>
       <c r="K111" s="20"/>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A112" s="40"/>
       <c r="B112" s="20"/>
       <c r="C112" s="13"/>
@@ -3678,7 +3687,7 @@
       <c r="J112" s="11"/>
       <c r="K112" s="20"/>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A113" s="40"/>
       <c r="B113" s="20"/>
       <c r="C113" s="13"/>
@@ -3694,7 +3703,7 @@
       <c r="J113" s="11"/>
       <c r="K113" s="20"/>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A114" s="40"/>
       <c r="B114" s="20"/>
       <c r="C114" s="13"/>
@@ -3710,7 +3719,7 @@
       <c r="J114" s="11"/>
       <c r="K114" s="20"/>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A115" s="40"/>
       <c r="B115" s="20"/>
       <c r="C115" s="13"/>
@@ -3726,7 +3735,7 @@
       <c r="J115" s="11"/>
       <c r="K115" s="20"/>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A116" s="40"/>
       <c r="B116" s="20"/>
       <c r="C116" s="13"/>
@@ -3742,7 +3751,7 @@
       <c r="J116" s="11"/>
       <c r="K116" s="20"/>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A117" s="40"/>
       <c r="B117" s="20"/>
       <c r="C117" s="13"/>
@@ -3758,7 +3767,7 @@
       <c r="J117" s="11"/>
       <c r="K117" s="20"/>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A118" s="40"/>
       <c r="B118" s="20"/>
       <c r="C118" s="13"/>
@@ -3774,7 +3783,7 @@
       <c r="J118" s="11"/>
       <c r="K118" s="20"/>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A119" s="40"/>
       <c r="B119" s="20"/>
       <c r="C119" s="13"/>
@@ -3790,7 +3799,7 @@
       <c r="J119" s="11"/>
       <c r="K119" s="20"/>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A120" s="40"/>
       <c r="B120" s="20"/>
       <c r="C120" s="13"/>
@@ -3806,7 +3815,7 @@
       <c r="J120" s="11"/>
       <c r="K120" s="20"/>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A121" s="40"/>
       <c r="B121" s="20"/>
       <c r="C121" s="13"/>
@@ -3822,7 +3831,7 @@
       <c r="J121" s="11"/>
       <c r="K121" s="20"/>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A122" s="40"/>
       <c r="B122" s="20"/>
       <c r="C122" s="13"/>
@@ -3838,7 +3847,7 @@
       <c r="J122" s="11"/>
       <c r="K122" s="20"/>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A123" s="40"/>
       <c r="B123" s="20"/>
       <c r="C123" s="13"/>
@@ -3854,7 +3863,7 @@
       <c r="J123" s="11"/>
       <c r="K123" s="20"/>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A124" s="40"/>
       <c r="B124" s="20"/>
       <c r="C124" s="13"/>
@@ -3870,7 +3879,7 @@
       <c r="J124" s="11"/>
       <c r="K124" s="20"/>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A125" s="40"/>
       <c r="B125" s="20"/>
       <c r="C125" s="13"/>
@@ -3886,7 +3895,7 @@
       <c r="J125" s="11"/>
       <c r="K125" s="20"/>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A126" s="40"/>
       <c r="B126" s="20"/>
       <c r="C126" s="13"/>
@@ -3902,7 +3911,7 @@
       <c r="J126" s="11"/>
       <c r="K126" s="20"/>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A127" s="40"/>
       <c r="B127" s="20"/>
       <c r="C127" s="13"/>
@@ -3918,7 +3927,7 @@
       <c r="J127" s="11"/>
       <c r="K127" s="20"/>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A128" s="41"/>
       <c r="B128" s="15"/>
       <c r="C128" s="42"/>
@@ -3936,23 +3945,23 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="G7:J7"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="J3:K3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="G7:J7"/>
   </mergeCells>
   <dataValidations disablePrompts="1" count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
   </dataValidations>
@@ -3975,67 +3984,67 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A2:K68"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3690" topLeftCell="A7" activePane="bottomLeft"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="3696" topLeftCell="A10" activePane="bottomLeft"/>
       <selection activeCell="F4" sqref="F4:G4"/>
-      <selection pane="bottomLeft" activeCell="E25" sqref="E25"/>
+      <selection pane="bottomLeft" activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.140625" style="30" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.140625" style="30" customWidth="1"/>
-    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.85546875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.109375" style="30" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.109375" style="30" customWidth="1"/>
+    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.6640625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="50" t="s">
+      <c r="B2" s="51" t="s">
         <v>42</v>
       </c>
-      <c r="C2" s="50"/>
+      <c r="C2" s="51"/>
       <c r="D2" s="21" t="s">
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="54"/>
-      <c r="G2" s="54"/>
+      <c r="F2" s="52"/>
+      <c r="G2" s="52"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="51"/>
-      <c r="K2" s="52"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J2" s="53"/>
+      <c r="K2" s="54"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="50"/>
-      <c r="C3" s="50"/>
+      <c r="B3" s="51"/>
+      <c r="C3" s="51"/>
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
       <c r="F3" s="55">
         <v>42552</v>
       </c>
-      <c r="G3" s="51"/>
+      <c r="G3" s="53"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
@@ -4043,29 +4052,29 @@
       <c r="J3" s="56"/>
       <c r="K3" s="57"/>
     </row>
-    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="50" t="s">
+      <c r="B4" s="51" t="s">
         <v>43</v>
       </c>
-      <c r="C4" s="50"/>
+      <c r="C4" s="51"/>
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="51" t="s">
+      <c r="F4" s="53" t="s">
         <v>65</v>
       </c>
-      <c r="G4" s="51"/>
+      <c r="G4" s="53"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="51"/>
-      <c r="K4" s="52"/>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J4" s="53"/>
+      <c r="K4" s="54"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="16"/>
       <c r="H5" s="27" t="s">
         <v>18</v>
@@ -4073,7 +4082,7 @@
       <c r="I5" s="27"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="31"/>
@@ -4086,24 +4095,24 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="53" t="s">
+      <c r="C7" s="58" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="53"/>
-      <c r="E7" s="53"/>
-      <c r="F7" s="53"/>
-      <c r="G7" s="53" t="s">
+      <c r="D7" s="58"/>
+      <c r="E7" s="58"/>
+      <c r="F7" s="58"/>
+      <c r="G7" s="58" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="53"/>
-      <c r="I7" s="53"/>
-      <c r="J7" s="53"/>
+      <c r="H7" s="58"/>
+      <c r="I7" s="58"/>
+      <c r="J7" s="58"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -4138,7 +4147,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="23"/>
       <c r="B9" s="24" t="s">
         <v>23</v>
@@ -4147,7 +4156,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>48.478999999999999</v>
+        <v>40.478999999999999</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -4162,7 +4171,7 @@
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="48" t="s">
         <v>48</v>
       </c>
@@ -4180,7 +4189,7 @@
       <c r="J10" s="11"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="40">
         <v>44713</v>
       </c>
@@ -4204,7 +4213,7 @@
         <v>44740</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="40">
         <v>44774</v>
       </c>
@@ -4228,7 +4237,7 @@
         <v>44797</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="40">
         <v>44835</v>
       </c>
@@ -4250,7 +4259,7 @@
         <v>44860</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="40"/>
       <c r="B14" s="20" t="s">
         <v>52</v>
@@ -4272,7 +4281,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="48" t="s">
         <v>59</v>
       </c>
@@ -4290,7 +4299,7 @@
       <c r="J15" s="11"/>
       <c r="K15" s="20"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="40">
         <v>44945</v>
       </c>
@@ -4314,7 +4323,7 @@
         <v>44939</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="40">
         <v>45047</v>
       </c>
@@ -4338,7 +4347,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="40"/>
       <c r="B18" s="20" t="s">
         <v>62</v>
@@ -4360,7 +4369,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="40"/>
       <c r="B19" s="20" t="s">
         <v>52</v>
@@ -4382,7 +4391,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" s="40"/>
       <c r="B20" s="20" t="s">
         <v>66</v>
@@ -4400,15 +4409,21 @@
       <c r="H20" s="39"/>
       <c r="I20" s="9"/>
       <c r="J20" s="11"/>
-      <c r="K20" s="61" t="s">
+      <c r="K20" s="50" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A21" s="40"/>
-      <c r="B21" s="20"/>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A21" s="40">
+        <v>45106</v>
+      </c>
+      <c r="B21" s="20" t="s">
+        <v>68</v>
+      </c>
       <c r="C21" s="13"/>
-      <c r="D21" s="39"/>
+      <c r="D21" s="39">
+        <v>8</v>
+      </c>
       <c r="E21" s="9"/>
       <c r="F21" s="20"/>
       <c r="G21" s="13" t="str">
@@ -4418,9 +4433,11 @@
       <c r="H21" s="39"/>
       <c r="I21" s="9"/>
       <c r="J21" s="11"/>
-      <c r="K21" s="20"/>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K21" s="20" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" s="40"/>
       <c r="B22" s="20"/>
       <c r="C22" s="13"/>
@@ -4436,7 +4453,7 @@
       <c r="J22" s="11"/>
       <c r="K22" s="20"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" s="40"/>
       <c r="B23" s="20"/>
       <c r="C23" s="13"/>
@@ -4452,7 +4469,7 @@
       <c r="J23" s="11"/>
       <c r="K23" s="20"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" s="40"/>
       <c r="B24" s="20"/>
       <c r="C24" s="13"/>
@@ -4468,7 +4485,7 @@
       <c r="J24" s="11"/>
       <c r="K24" s="20"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" s="40"/>
       <c r="B25" s="20"/>
       <c r="C25" s="13"/>
@@ -4484,7 +4501,7 @@
       <c r="J25" s="11"/>
       <c r="K25" s="20"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" s="40"/>
       <c r="B26" s="20"/>
       <c r="C26" s="13"/>
@@ -4500,7 +4517,7 @@
       <c r="J26" s="11"/>
       <c r="K26" s="20"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" s="40"/>
       <c r="B27" s="20"/>
       <c r="C27" s="13"/>
@@ -4516,7 +4533,7 @@
       <c r="J27" s="11"/>
       <c r="K27" s="20"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" s="40"/>
       <c r="B28" s="20"/>
       <c r="C28" s="13"/>
@@ -4532,7 +4549,7 @@
       <c r="J28" s="11"/>
       <c r="K28" s="20"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" s="40"/>
       <c r="B29" s="20"/>
       <c r="C29" s="13"/>
@@ -4548,7 +4565,7 @@
       <c r="J29" s="11"/>
       <c r="K29" s="20"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30" s="40"/>
       <c r="B30" s="20"/>
       <c r="C30" s="13"/>
@@ -4564,7 +4581,7 @@
       <c r="J30" s="11"/>
       <c r="K30" s="20"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31" s="40"/>
       <c r="B31" s="20"/>
       <c r="C31" s="13"/>
@@ -4580,7 +4597,7 @@
       <c r="J31" s="11"/>
       <c r="K31" s="20"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32" s="40"/>
       <c r="B32" s="20"/>
       <c r="C32" s="13"/>
@@ -4596,7 +4613,7 @@
       <c r="J32" s="11"/>
       <c r="K32" s="20"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33" s="40"/>
       <c r="B33" s="20"/>
       <c r="C33" s="13"/>
@@ -4612,7 +4629,7 @@
       <c r="J33" s="11"/>
       <c r="K33" s="20"/>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34" s="40"/>
       <c r="B34" s="20"/>
       <c r="C34" s="13"/>
@@ -4628,7 +4645,7 @@
       <c r="J34" s="11"/>
       <c r="K34" s="20"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35" s="40"/>
       <c r="B35" s="20"/>
       <c r="C35" s="13"/>
@@ -4644,7 +4661,7 @@
       <c r="J35" s="11"/>
       <c r="K35" s="20"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36" s="40"/>
       <c r="B36" s="20"/>
       <c r="C36" s="13"/>
@@ -4660,7 +4677,7 @@
       <c r="J36" s="11"/>
       <c r="K36" s="20"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A37" s="40"/>
       <c r="B37" s="20"/>
       <c r="C37" s="13"/>
@@ -4676,7 +4693,7 @@
       <c r="J37" s="11"/>
       <c r="K37" s="20"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A38" s="40"/>
       <c r="B38" s="20"/>
       <c r="C38" s="13"/>
@@ -4692,7 +4709,7 @@
       <c r="J38" s="11"/>
       <c r="K38" s="20"/>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A39" s="40"/>
       <c r="B39" s="20"/>
       <c r="C39" s="13"/>
@@ -4708,7 +4725,7 @@
       <c r="J39" s="11"/>
       <c r="K39" s="20"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A40" s="40"/>
       <c r="B40" s="20"/>
       <c r="C40" s="13"/>
@@ -4724,7 +4741,7 @@
       <c r="J40" s="11"/>
       <c r="K40" s="20"/>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A41" s="40"/>
       <c r="B41" s="20"/>
       <c r="C41" s="13"/>
@@ -4740,7 +4757,7 @@
       <c r="J41" s="11"/>
       <c r="K41" s="20"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A42" s="40"/>
       <c r="B42" s="20"/>
       <c r="C42" s="13"/>
@@ -4756,7 +4773,7 @@
       <c r="J42" s="11"/>
       <c r="K42" s="20"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A43" s="40"/>
       <c r="B43" s="20"/>
       <c r="C43" s="13"/>
@@ -4772,7 +4789,7 @@
       <c r="J43" s="11"/>
       <c r="K43" s="20"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A44" s="40"/>
       <c r="B44" s="20"/>
       <c r="C44" s="13"/>
@@ -4788,7 +4805,7 @@
       <c r="J44" s="11"/>
       <c r="K44" s="20"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A45" s="40"/>
       <c r="B45" s="20"/>
       <c r="C45" s="13"/>
@@ -4804,7 +4821,7 @@
       <c r="J45" s="11"/>
       <c r="K45" s="20"/>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A46" s="40"/>
       <c r="B46" s="20"/>
       <c r="C46" s="13"/>
@@ -4820,7 +4837,7 @@
       <c r="J46" s="11"/>
       <c r="K46" s="20"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A47" s="40"/>
       <c r="B47" s="20"/>
       <c r="C47" s="13"/>
@@ -4836,7 +4853,7 @@
       <c r="J47" s="11"/>
       <c r="K47" s="20"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A48" s="40"/>
       <c r="B48" s="20"/>
       <c r="C48" s="13"/>
@@ -4852,7 +4869,7 @@
       <c r="J48" s="11"/>
       <c r="K48" s="20"/>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A49" s="40"/>
       <c r="B49" s="20"/>
       <c r="C49" s="13"/>
@@ -4868,7 +4885,7 @@
       <c r="J49" s="11"/>
       <c r="K49" s="20"/>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A50" s="40"/>
       <c r="B50" s="20"/>
       <c r="C50" s="13"/>
@@ -4884,7 +4901,7 @@
       <c r="J50" s="11"/>
       <c r="K50" s="20"/>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A51" s="40"/>
       <c r="B51" s="20"/>
       <c r="C51" s="13"/>
@@ -4900,7 +4917,7 @@
       <c r="J51" s="11"/>
       <c r="K51" s="20"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A52" s="40"/>
       <c r="B52" s="20"/>
       <c r="C52" s="13"/>
@@ -4916,7 +4933,7 @@
       <c r="J52" s="11"/>
       <c r="K52" s="20"/>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A53" s="40"/>
       <c r="B53" s="20"/>
       <c r="C53" s="13"/>
@@ -4932,7 +4949,7 @@
       <c r="J53" s="11"/>
       <c r="K53" s="20"/>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A54" s="40"/>
       <c r="B54" s="20"/>
       <c r="C54" s="13"/>
@@ -4948,7 +4965,7 @@
       <c r="J54" s="11"/>
       <c r="K54" s="20"/>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A55" s="40"/>
       <c r="B55" s="20"/>
       <c r="C55" s="13"/>
@@ -4964,7 +4981,7 @@
       <c r="J55" s="11"/>
       <c r="K55" s="20"/>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A56" s="40"/>
       <c r="B56" s="20"/>
       <c r="C56" s="13"/>
@@ -4980,7 +4997,7 @@
       <c r="J56" s="11"/>
       <c r="K56" s="20"/>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A57" s="40"/>
       <c r="B57" s="20"/>
       <c r="C57" s="13"/>
@@ -4996,7 +5013,7 @@
       <c r="J57" s="11"/>
       <c r="K57" s="20"/>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A58" s="40"/>
       <c r="B58" s="20"/>
       <c r="C58" s="13"/>
@@ -5012,7 +5029,7 @@
       <c r="J58" s="11"/>
       <c r="K58" s="20"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A59" s="40"/>
       <c r="B59" s="20"/>
       <c r="C59" s="13"/>
@@ -5028,7 +5045,7 @@
       <c r="J59" s="11"/>
       <c r="K59" s="20"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A60" s="40"/>
       <c r="B60" s="20"/>
       <c r="C60" s="13"/>
@@ -5044,7 +5061,7 @@
       <c r="J60" s="11"/>
       <c r="K60" s="20"/>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A61" s="40"/>
       <c r="B61" s="20"/>
       <c r="C61" s="13"/>
@@ -5060,7 +5077,7 @@
       <c r="J61" s="11"/>
       <c r="K61" s="20"/>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A62" s="40"/>
       <c r="B62" s="20"/>
       <c r="C62" s="13"/>
@@ -5076,7 +5093,7 @@
       <c r="J62" s="11"/>
       <c r="K62" s="20"/>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A63" s="40"/>
       <c r="B63" s="20"/>
       <c r="C63" s="13"/>
@@ -5092,7 +5109,7 @@
       <c r="J63" s="11"/>
       <c r="K63" s="20"/>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A64" s="40"/>
       <c r="B64" s="20"/>
       <c r="C64" s="13"/>
@@ -5108,7 +5125,7 @@
       <c r="J64" s="11"/>
       <c r="K64" s="20"/>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A65" s="40"/>
       <c r="B65" s="20"/>
       <c r="C65" s="13"/>
@@ -5124,7 +5141,7 @@
       <c r="J65" s="11"/>
       <c r="K65" s="20"/>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A66" s="40"/>
       <c r="B66" s="20"/>
       <c r="C66" s="13"/>
@@ -5140,7 +5157,7 @@
       <c r="J66" s="11"/>
       <c r="K66" s="20"/>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A67" s="40"/>
       <c r="B67" s="20"/>
       <c r="C67" s="13"/>
@@ -5156,7 +5173,7 @@
       <c r="J67" s="11"/>
       <c r="K67" s="20"/>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A68" s="41"/>
       <c r="B68" s="15"/>
       <c r="C68" s="42"/>
@@ -5187,10 +5204,10 @@
     <mergeCell ref="F4:G4"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0100-000001000000}">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
   </dataValidations>
@@ -5213,41 +5230,41 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:L67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.28515625" customWidth="1"/>
-    <col min="2" max="2" width="20.7109375" customWidth="1"/>
-    <col min="4" max="4" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.140625" customWidth="1"/>
-    <col min="9" max="9" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="37" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" customWidth="1"/>
+    <col min="1" max="1" width="21.33203125" customWidth="1"/>
+    <col min="2" max="2" width="20.6640625" customWidth="1"/>
+    <col min="4" max="4" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.109375" customWidth="1"/>
+    <col min="9" max="9" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.88671875" customWidth="1"/>
+    <col min="11" max="11" width="14.88671875" style="37" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="14.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D1" s="58" t="s">
+    <row r="1" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D1" s="59" t="s">
         <v>33</v>
       </c>
-      <c r="E1" s="58"/>
-      <c r="F1" s="58"/>
-      <c r="G1" s="58"/>
-      <c r="J1" s="59" t="s">
+      <c r="E1" s="59"/>
+      <c r="F1" s="59"/>
+      <c r="G1" s="59"/>
+      <c r="J1" s="60" t="s">
         <v>34</v>
       </c>
-      <c r="K1" s="59"/>
-      <c r="L1" s="59"/>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="K1" s="60"/>
+      <c r="L1" s="60"/>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="32" t="s">
         <v>24</v>
       </c>
@@ -5276,7 +5293,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="11">
         <v>63.478999999999999</v>
       </c>
@@ -5300,17 +5317,17 @@
         <v>---</v>
       </c>
     </row>
-    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="G4" s="33"/>
       <c r="J4" s="1" t="str">
         <f>IF(TEXT(J3,"D")=1,1,TEXT(J3,"D"))</f>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C6" s="38" t="s">
         <v>28</v>
       </c>
@@ -5324,14 +5341,14 @@
         <v>30</v>
       </c>
       <c r="G6" s="46"/>
-      <c r="I6" s="60" t="s">
+      <c r="I6" s="61" t="s">
         <v>38</v>
       </c>
-      <c r="J6" s="60"/>
-      <c r="K6" s="60"/>
-      <c r="L6" s="60"/>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="J6" s="61"/>
+      <c r="K6" s="61"/>
+      <c r="L6" s="61"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C7" s="37">
         <v>1</v>
       </c>
@@ -5358,7 +5375,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C8" s="37">
         <v>2</v>
       </c>
@@ -5384,7 +5401,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C9" s="37">
         <v>3</v>
       </c>
@@ -5410,7 +5427,7 @@
         <v>8.3000000000000004E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C10" s="37">
         <v>4</v>
       </c>
@@ -5436,7 +5453,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C11" s="37">
         <v>5</v>
       </c>
@@ -5462,7 +5479,7 @@
         <v>0.16700000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C12" s="37">
         <v>6</v>
       </c>
@@ -5488,7 +5505,7 @@
         <v>0.20800000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C13" s="37">
         <v>7</v>
       </c>
@@ -5514,7 +5531,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C14" s="37">
         <v>8</v>
       </c>
@@ -5540,7 +5557,7 @@
         <v>0.29199999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C15" s="37">
         <v>9</v>
       </c>
@@ -5560,7 +5577,7 @@
         <v>0.33299999999999996</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C16" s="37">
         <v>10</v>
       </c>
@@ -5580,7 +5597,7 @@
         <v>0.37499999999999994</v>
       </c>
     </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C17" s="37">
         <v>11</v>
       </c>
@@ -5600,7 +5617,7 @@
         <v>0.41699999999999993</v>
       </c>
     </row>
-    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C18" s="37">
         <v>12</v>
       </c>
@@ -5621,7 +5638,7 @@
         <v>0.45799999999999991</v>
       </c>
     </row>
-    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C19" s="37">
         <v>13</v>
       </c>
@@ -5642,7 +5659,7 @@
         <v>0.49999999999999989</v>
       </c>
     </row>
-    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C20" s="37">
         <v>14</v>
       </c>
@@ -5663,7 +5680,7 @@
         <v>0.54199999999999993</v>
       </c>
     </row>
-    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C21" s="37">
         <v>15</v>
       </c>
@@ -5684,7 +5701,7 @@
         <v>0.58299999999999996</v>
       </c>
     </row>
-    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C22" s="37">
         <v>16</v>
       </c>
@@ -5705,7 +5722,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C23" s="37">
         <v>17</v>
       </c>
@@ -5726,7 +5743,7 @@
         <v>0.66700000000000004</v>
       </c>
     </row>
-    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C24" s="37">
         <v>18</v>
       </c>
@@ -5747,7 +5764,7 @@
         <v>0.70800000000000007</v>
       </c>
     </row>
-    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C25" s="37">
         <v>19</v>
       </c>
@@ -5768,7 +5785,7 @@
         <v>0.75000000000000011</v>
       </c>
     </row>
-    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C26" s="37">
         <v>20</v>
       </c>
@@ -5789,7 +5806,7 @@
         <v>0.79200000000000015</v>
       </c>
     </row>
-    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C27" s="37">
         <v>21</v>
       </c>
@@ -5810,7 +5827,7 @@
         <v>0.83300000000000018</v>
       </c>
     </row>
-    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C28" s="37">
         <v>22</v>
       </c>
@@ -5831,7 +5848,7 @@
         <v>0.87500000000000022</v>
       </c>
     </row>
-    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C29" s="37">
         <v>23</v>
       </c>
@@ -5852,7 +5869,7 @@
         <v>0.91700000000000026</v>
       </c>
     </row>
-    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C30" s="37">
         <v>24</v>
       </c>
@@ -5873,7 +5890,7 @@
         <v>0.9580000000000003</v>
       </c>
     </row>
-    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C31" s="37">
         <v>25</v>
       </c>
@@ -5894,7 +5911,7 @@
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C32" s="37">
         <v>26</v>
       </c>
@@ -5915,7 +5932,7 @@
         <v>1.0420000000000003</v>
       </c>
     </row>
-    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C33" s="37">
         <v>27</v>
       </c>
@@ -5936,7 +5953,7 @@
         <v>1.0830000000000002</v>
       </c>
     </row>
-    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C34" s="37">
         <v>28</v>
       </c>
@@ -5957,7 +5974,7 @@
         <v>1.1250000000000002</v>
       </c>
     </row>
-    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C35" s="37">
         <v>29</v>
       </c>
@@ -5978,7 +5995,7 @@
         <v>1.1670000000000003</v>
       </c>
     </row>
-    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C36" s="37">
         <v>30</v>
       </c>
@@ -5999,7 +6016,7 @@
         <v>1.2080000000000002</v>
       </c>
     </row>
-    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C37" s="37">
         <v>31</v>
       </c>
@@ -6020,7 +6037,7 @@
         <v>1.2500000000000002</v>
       </c>
     </row>
-    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C38" s="37">
         <v>32</v>
       </c>
@@ -6029,7 +6046,7 @@
       </c>
       <c r="G38"/>
     </row>
-    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C39" s="37">
         <v>33</v>
       </c>
@@ -6038,7 +6055,7 @@
       </c>
       <c r="G39"/>
     </row>
-    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C40" s="37">
         <v>34</v>
       </c>
@@ -6047,7 +6064,7 @@
       </c>
       <c r="G40"/>
     </row>
-    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C41" s="37">
         <v>35</v>
       </c>
@@ -6056,7 +6073,7 @@
       </c>
       <c r="G41"/>
     </row>
-    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C42" s="37">
         <v>36</v>
       </c>
@@ -6065,7 +6082,7 @@
       </c>
       <c r="G42"/>
     </row>
-    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C43" s="37">
         <v>37</v>
       </c>
@@ -6074,7 +6091,7 @@
       </c>
       <c r="G43"/>
     </row>
-    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C44" s="37">
         <v>38</v>
       </c>
@@ -6083,7 +6100,7 @@
       </c>
       <c r="G44"/>
     </row>
-    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C45" s="37">
         <v>39</v>
       </c>
@@ -6092,7 +6109,7 @@
       </c>
       <c r="G45"/>
     </row>
-    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C46" s="37">
         <v>40</v>
       </c>
@@ -6101,7 +6118,7 @@
       </c>
       <c r="G46"/>
     </row>
-    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C47" s="37">
         <v>41</v>
       </c>
@@ -6110,7 +6127,7 @@
       </c>
       <c r="G47"/>
     </row>
-    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C48" s="37">
         <v>42</v>
       </c>
@@ -6119,7 +6136,7 @@
       </c>
       <c r="G48"/>
     </row>
-    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C49" s="37">
         <v>43</v>
       </c>
@@ -6128,7 +6145,7 @@
       </c>
       <c r="G49"/>
     </row>
-    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C50" s="37">
         <v>44</v>
       </c>
@@ -6137,7 +6154,7 @@
       </c>
       <c r="G50"/>
     </row>
-    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C51" s="37">
         <v>45</v>
       </c>
@@ -6146,7 +6163,7 @@
       </c>
       <c r="G51"/>
     </row>
-    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C52" s="37">
         <v>46</v>
       </c>
@@ -6155,7 +6172,7 @@
       </c>
       <c r="G52"/>
     </row>
-    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C53" s="37">
         <v>47</v>
       </c>
@@ -6164,7 +6181,7 @@
       </c>
       <c r="G53"/>
     </row>
-    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C54" s="37">
         <v>48</v>
       </c>
@@ -6173,7 +6190,7 @@
       </c>
       <c r="G54"/>
     </row>
-    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C55" s="37">
         <v>49</v>
       </c>
@@ -6182,7 +6199,7 @@
       </c>
       <c r="G55"/>
     </row>
-    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C56" s="37">
         <v>50</v>
       </c>
@@ -6191,7 +6208,7 @@
       </c>
       <c r="G56"/>
     </row>
-    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C57" s="37">
         <v>51</v>
       </c>
@@ -6200,7 +6217,7 @@
       </c>
       <c r="G57"/>
     </row>
-    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C58" s="37">
         <v>52</v>
       </c>
@@ -6209,7 +6226,7 @@
       </c>
       <c r="G58"/>
     </row>
-    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C59" s="37">
         <v>53</v>
       </c>
@@ -6218,7 +6235,7 @@
       </c>
       <c r="G59"/>
     </row>
-    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C60" s="37">
         <v>54</v>
       </c>
@@ -6227,7 +6244,7 @@
       </c>
       <c r="G60"/>
     </row>
-    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C61" s="37">
         <v>55</v>
       </c>
@@ -6236,7 +6253,7 @@
       </c>
       <c r="G61"/>
     </row>
-    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C62" s="37">
         <v>56</v>
       </c>
@@ -6245,7 +6262,7 @@
       </c>
       <c r="G62"/>
     </row>
-    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C63" s="37">
         <v>57</v>
       </c>
@@ -6254,7 +6271,7 @@
       </c>
       <c r="G63"/>
     </row>
-    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C64" s="37">
         <v>58</v>
       </c>
@@ -6263,7 +6280,7 @@
       </c>
       <c r="G64"/>
     </row>
-    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C65" s="37">
         <v>59</v>
       </c>
@@ -6272,7 +6289,7 @@
       </c>
       <c r="G65"/>
     </row>
-    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C66" s="37">
         <v>60</v>
       </c>
@@ -6281,7 +6298,7 @@
       </c>
       <c r="G66"/>
     </row>
-    <row r="67" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="67" spans="3:12" x14ac:dyDescent="0.3">
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>

--- a/NEW HR/DONE/MULINGTAPANG, GUILLERMA.xlsx
+++ b/NEW HR/DONE/MULINGTAPANG, GUILLERMA.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVE-CARD\NEW HR\DONE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\dole-pc\Users\DOLE\Desktop\LEAVE-CARD\NEW HR\DONE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43D8459C-8A9D-4963-B50B-1B3A09AA38BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B6861E9-DB3F-4F8F-ADB4-25AEF21E006C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="77">
   <si>
     <t>PERIOD</t>
   </si>
@@ -247,6 +247,27 @@
   </si>
   <si>
     <t>7/6-7, 13-14,20-21/2023</t>
+  </si>
+  <si>
+    <t>8/3,4/2023</t>
+  </si>
+  <si>
+    <t>8/10-11/2023</t>
+  </si>
+  <si>
+    <t>8/17,18/2023</t>
+  </si>
+  <si>
+    <t>8/24,25/2023</t>
+  </si>
+  <si>
+    <t>9/7,8,14,15,21,22,28,29/2023</t>
+  </si>
+  <si>
+    <t>8/31 - 9/1/2023</t>
+  </si>
+  <si>
+    <t>2024</t>
   </si>
 </sst>
 </file>
@@ -641,14 +662,17 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -658,9 +682,6 @@
     </xf>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1189,7 +1210,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table13" displayName="Table13" ref="A8:K128" totalsRowShown="0" headerRowDxfId="29" headerRowBorderDxfId="28" tableBorderDxfId="27" totalsRowBorderDxfId="26">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table13" displayName="Table13" ref="A8:K129" totalsRowShown="0" headerRowDxfId="29" headerRowBorderDxfId="28" tableBorderDxfId="27" totalsRowBorderDxfId="26">
   <tableColumns count="11">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="PERIOD" dataDxfId="25"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="PARTICULARS" dataDxfId="24"/>
@@ -1548,12 +1569,12 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K128"/>
+  <dimension ref="A2:K129"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3696" topLeftCell="A69" activePane="bottomLeft"/>
-      <selection activeCell="B4" sqref="B4:C4"/>
-      <selection pane="bottomLeft" activeCell="C79" sqref="C79:C80"/>
+      <pane ySplit="3696" topLeftCell="A79"/>
+      <selection activeCell="B2" sqref="B2:C2"/>
+      <selection pane="bottomLeft" activeCell="E96" sqref="E96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1583,14 +1604,14 @@
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="52"/>
-      <c r="G2" s="52"/>
+      <c r="F2" s="55"/>
+      <c r="G2" s="55"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="53"/>
-      <c r="K2" s="54"/>
+      <c r="J2" s="52"/>
+      <c r="K2" s="53"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="18" t="s">
@@ -1601,16 +1622,16 @@
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="55">
+      <c r="F3" s="56">
         <v>42552</v>
       </c>
-      <c r="G3" s="53"/>
+      <c r="G3" s="52"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="56"/>
-      <c r="K3" s="57"/>
+      <c r="J3" s="57"/>
+      <c r="K3" s="58"/>
     </row>
     <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="18" t="s">
@@ -1623,14 +1644,14 @@
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="53"/>
-      <c r="G4" s="53"/>
+      <c r="F4" s="52"/>
+      <c r="G4" s="52"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="53"/>
-      <c r="K4" s="54"/>
+      <c r="J4" s="52"/>
+      <c r="K4" s="53"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="16"/>
@@ -1656,18 +1677,18 @@
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="58" t="s">
+      <c r="C7" s="54" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="58"/>
-      <c r="E7" s="58"/>
-      <c r="F7" s="58"/>
-      <c r="G7" s="58" t="s">
+      <c r="D7" s="54"/>
+      <c r="E7" s="54"/>
+      <c r="F7" s="54"/>
+      <c r="G7" s="54" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="58"/>
-      <c r="I7" s="58"/>
-      <c r="J7" s="58"/>
+      <c r="H7" s="54"/>
+      <c r="I7" s="54"/>
+      <c r="J7" s="54"/>
       <c r="K7" s="14"/>
     </row>
     <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
@@ -1714,7 +1735,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table13[EARNED])-SUM(Table13[Absence Undertime W/ Pay])</f>
-        <v>56.25</v>
+        <v>72.375</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -1724,7 +1745,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table13[[EARNED ]])-SUM(Table13[Absence Undertime  W/ Pay])</f>
-        <v>81.25</v>
+        <v>102.375</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -3077,7 +3098,7 @@
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A76" s="40">
-        <v>44927</v>
+        <v>44957</v>
       </c>
       <c r="B76" s="20"/>
       <c r="C76" s="13">
@@ -3097,7 +3118,7 @@
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A77" s="40">
-        <v>44958</v>
+        <v>44985</v>
       </c>
       <c r="B77" s="20"/>
       <c r="C77" s="13">
@@ -3117,7 +3138,7 @@
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A78" s="40">
-        <v>44986</v>
+        <v>45016</v>
       </c>
       <c r="B78" s="20"/>
       <c r="C78" s="13">
@@ -3137,7 +3158,7 @@
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A79" s="40">
-        <v>45017</v>
+        <v>45046</v>
       </c>
       <c r="B79" s="20"/>
       <c r="C79" s="13">
@@ -3157,7 +3178,7 @@
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A80" s="40">
-        <v>45047</v>
+        <v>45077</v>
       </c>
       <c r="B80" s="20"/>
       <c r="C80" s="13">
@@ -3176,15 +3197,19 @@
       <c r="K80" s="20"/>
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A81" s="40"/>
+      <c r="A81" s="40">
+        <v>45107</v>
+      </c>
       <c r="B81" s="20"/>
-      <c r="C81" s="13"/>
+      <c r="C81" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D81" s="39"/>
       <c r="E81" s="9"/>
       <c r="F81" s="20"/>
-      <c r="G81" s="13" t="str">
-        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G81" s="13">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H81" s="39"/>
       <c r="I81" s="9"/>
@@ -3192,15 +3217,19 @@
       <c r="K81" s="20"/>
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A82" s="40"/>
+      <c r="A82" s="40">
+        <v>45138</v>
+      </c>
       <c r="B82" s="20"/>
-      <c r="C82" s="13"/>
+      <c r="C82" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D82" s="39"/>
       <c r="E82" s="9"/>
       <c r="F82" s="20"/>
-      <c r="G82" s="13" t="str">
-        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G82" s="13">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H82" s="39"/>
       <c r="I82" s="9"/>
@@ -3208,15 +3237,19 @@
       <c r="K82" s="20"/>
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A83" s="40"/>
+      <c r="A83" s="40">
+        <v>45169</v>
+      </c>
       <c r="B83" s="20"/>
-      <c r="C83" s="13"/>
+      <c r="C83" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D83" s="39"/>
       <c r="E83" s="9"/>
       <c r="F83" s="20"/>
-      <c r="G83" s="13" t="str">
-        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G83" s="13">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H83" s="39"/>
       <c r="I83" s="9"/>
@@ -3224,15 +3257,19 @@
       <c r="K83" s="20"/>
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A84" s="40"/>
+      <c r="A84" s="40">
+        <v>45199</v>
+      </c>
       <c r="B84" s="20"/>
-      <c r="C84" s="13"/>
+      <c r="C84" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D84" s="39"/>
       <c r="E84" s="9"/>
       <c r="F84" s="20"/>
-      <c r="G84" s="13" t="str">
-        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G84" s="13">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H84" s="39"/>
       <c r="I84" s="9"/>
@@ -3240,15 +3277,19 @@
       <c r="K84" s="20"/>
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A85" s="40"/>
+      <c r="A85" s="40">
+        <v>45230</v>
+      </c>
       <c r="B85" s="20"/>
-      <c r="C85" s="13"/>
+      <c r="C85" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D85" s="39"/>
       <c r="E85" s="9"/>
       <c r="F85" s="20"/>
-      <c r="G85" s="13" t="str">
-        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G85" s="13">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H85" s="39"/>
       <c r="I85" s="9"/>
@@ -3256,15 +3297,19 @@
       <c r="K85" s="20"/>
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A86" s="40"/>
+      <c r="A86" s="40">
+        <v>45260</v>
+      </c>
       <c r="B86" s="20"/>
-      <c r="C86" s="13"/>
+      <c r="C86" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D86" s="39"/>
       <c r="E86" s="9"/>
       <c r="F86" s="20"/>
-      <c r="G86" s="13" t="str">
-        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G86" s="13">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H86" s="39"/>
       <c r="I86" s="9"/>
@@ -3272,15 +3317,23 @@
       <c r="K86" s="20"/>
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A87" s="40"/>
-      <c r="B87" s="20"/>
-      <c r="C87" s="13"/>
-      <c r="D87" s="39"/>
+      <c r="A87" s="40">
+        <v>45291</v>
+      </c>
+      <c r="B87" s="20" t="s">
+        <v>58</v>
+      </c>
+      <c r="C87" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D87" s="39">
+        <v>5</v>
+      </c>
       <c r="E87" s="9"/>
       <c r="F87" s="20"/>
-      <c r="G87" s="13" t="str">
-        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G87" s="13">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H87" s="39"/>
       <c r="I87" s="9"/>
@@ -3288,7 +3341,9 @@
       <c r="K87" s="20"/>
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A88" s="40"/>
+      <c r="A88" s="48" t="s">
+        <v>76</v>
+      </c>
       <c r="B88" s="20"/>
       <c r="C88" s="13"/>
       <c r="D88" s="39"/>
@@ -3304,15 +3359,19 @@
       <c r="K88" s="20"/>
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A89" s="40"/>
+      <c r="A89" s="40">
+        <v>45322</v>
+      </c>
       <c r="B89" s="20"/>
-      <c r="C89" s="13"/>
+      <c r="C89" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D89" s="39"/>
       <c r="E89" s="9"/>
       <c r="F89" s="20"/>
-      <c r="G89" s="13" t="str">
-        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G89" s="13">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H89" s="39"/>
       <c r="I89" s="9"/>
@@ -3320,15 +3379,19 @@
       <c r="K89" s="20"/>
     </row>
     <row r="90" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A90" s="40"/>
+      <c r="A90" s="40">
+        <v>45351</v>
+      </c>
       <c r="B90" s="20"/>
-      <c r="C90" s="13"/>
+      <c r="C90" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D90" s="39"/>
       <c r="E90" s="9"/>
       <c r="F90" s="20"/>
-      <c r="G90" s="13" t="str">
-        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G90" s="13">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H90" s="39"/>
       <c r="I90" s="9"/>
@@ -3336,15 +3399,19 @@
       <c r="K90" s="20"/>
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A91" s="40"/>
+      <c r="A91" s="40">
+        <v>45382</v>
+      </c>
       <c r="B91" s="20"/>
-      <c r="C91" s="13"/>
+      <c r="C91" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D91" s="39"/>
       <c r="E91" s="9"/>
       <c r="F91" s="20"/>
-      <c r="G91" s="13" t="str">
-        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G91" s="13">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H91" s="39"/>
       <c r="I91" s="9"/>
@@ -3352,15 +3419,19 @@
       <c r="K91" s="20"/>
     </row>
     <row r="92" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A92" s="40"/>
+      <c r="A92" s="40">
+        <v>45412</v>
+      </c>
       <c r="B92" s="20"/>
-      <c r="C92" s="13"/>
+      <c r="C92" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D92" s="39"/>
       <c r="E92" s="9"/>
       <c r="F92" s="20"/>
-      <c r="G92" s="13" t="str">
-        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G92" s="13">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H92" s="39"/>
       <c r="I92" s="9"/>
@@ -3368,15 +3439,19 @@
       <c r="K92" s="20"/>
     </row>
     <row r="93" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A93" s="40"/>
+      <c r="A93" s="40">
+        <v>45443</v>
+      </c>
       <c r="B93" s="20"/>
-      <c r="C93" s="13"/>
+      <c r="C93" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D93" s="39"/>
       <c r="E93" s="9"/>
       <c r="F93" s="20"/>
-      <c r="G93" s="13" t="str">
-        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G93" s="13">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H93" s="39"/>
       <c r="I93" s="9"/>
@@ -3384,15 +3459,19 @@
       <c r="K93" s="20"/>
     </row>
     <row r="94" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A94" s="40"/>
+      <c r="A94" s="40">
+        <v>45473</v>
+      </c>
       <c r="B94" s="20"/>
-      <c r="C94" s="13"/>
+      <c r="C94" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D94" s="39"/>
       <c r="E94" s="9"/>
       <c r="F94" s="20"/>
-      <c r="G94" s="13" t="str">
-        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G94" s="13">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H94" s="39"/>
       <c r="I94" s="9"/>
@@ -3400,15 +3479,19 @@
       <c r="K94" s="20"/>
     </row>
     <row r="95" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A95" s="40"/>
+      <c r="A95" s="40">
+        <v>45504</v>
+      </c>
       <c r="B95" s="20"/>
-      <c r="C95" s="13"/>
+      <c r="C95" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D95" s="39"/>
       <c r="E95" s="9"/>
       <c r="F95" s="20"/>
-      <c r="G95" s="13" t="str">
-        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G95" s="13">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H95" s="39"/>
       <c r="I95" s="9"/>
@@ -3416,15 +3499,19 @@
       <c r="K95" s="20"/>
     </row>
     <row r="96" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A96" s="40"/>
+      <c r="A96" s="40">
+        <v>45535</v>
+      </c>
       <c r="B96" s="20"/>
-      <c r="C96" s="13"/>
+      <c r="C96" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D96" s="39"/>
       <c r="E96" s="9"/>
       <c r="F96" s="20"/>
-      <c r="G96" s="13" t="str">
-        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G96" s="13">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H96" s="39"/>
       <c r="I96" s="9"/>
@@ -3432,15 +3519,19 @@
       <c r="K96" s="20"/>
     </row>
     <row r="97" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A97" s="40"/>
+      <c r="A97" s="40">
+        <v>45565</v>
+      </c>
       <c r="B97" s="20"/>
-      <c r="C97" s="13"/>
+      <c r="C97" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D97" s="39"/>
       <c r="E97" s="9"/>
       <c r="F97" s="20"/>
-      <c r="G97" s="13" t="str">
-        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G97" s="13">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H97" s="39"/>
       <c r="I97" s="9"/>
@@ -3448,15 +3539,19 @@
       <c r="K97" s="20"/>
     </row>
     <row r="98" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A98" s="40"/>
+      <c r="A98" s="40">
+        <v>45591</v>
+      </c>
       <c r="B98" s="20"/>
-      <c r="C98" s="13"/>
+      <c r="C98" s="13">
+        <v>1.1250000000000002</v>
+      </c>
       <c r="D98" s="39"/>
       <c r="E98" s="9"/>
       <c r="F98" s="20"/>
-      <c r="G98" s="13" t="str">
-        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G98" s="13">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v>1.1250000000000002</v>
       </c>
       <c r="H98" s="39"/>
       <c r="I98" s="9"/>
@@ -3928,34 +4023,50 @@
       <c r="K127" s="20"/>
     </row>
     <row r="128" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A128" s="41"/>
-      <c r="B128" s="15"/>
-      <c r="C128" s="42"/>
-      <c r="D128" s="43"/>
+      <c r="A128" s="40"/>
+      <c r="B128" s="20"/>
+      <c r="C128" s="13"/>
+      <c r="D128" s="39"/>
       <c r="E128" s="9"/>
-      <c r="F128" s="15"/>
-      <c r="G128" s="42" t="str">
-        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H128" s="43"/>
+      <c r="F128" s="20"/>
+      <c r="G128" s="13" t="str">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H128" s="39"/>
       <c r="I128" s="9"/>
-      <c r="J128" s="12"/>
-      <c r="K128" s="15"/>
+      <c r="J128" s="11"/>
+      <c r="K128" s="20"/>
+    </row>
+    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A129" s="41"/>
+      <c r="B129" s="15"/>
+      <c r="C129" s="42"/>
+      <c r="D129" s="43"/>
+      <c r="E129" s="9"/>
+      <c r="F129" s="15"/>
+      <c r="G129" s="42" t="str">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H129" s="43"/>
+      <c r="I129" s="9"/>
+      <c r="J129" s="12"/>
+      <c r="K129" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="G7:J7"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="J3:K3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="G7:J7"/>
   </mergeCells>
   <dataValidations disablePrompts="1" count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0000-000000000000}">
@@ -3993,7 +4104,7 @@
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3696" topLeftCell="A10" activePane="bottomLeft"/>
       <selection activeCell="F4" sqref="F4:G4"/>
-      <selection pane="bottomLeft" activeCell="A22" sqref="A22"/>
+      <selection pane="bottomLeft" activeCell="G29" sqref="G29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4023,14 +4134,14 @@
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="52"/>
-      <c r="G2" s="52"/>
+      <c r="F2" s="55"/>
+      <c r="G2" s="55"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="53"/>
-      <c r="K2" s="54"/>
+      <c r="J2" s="52"/>
+      <c r="K2" s="53"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="18" t="s">
@@ -4041,16 +4152,16 @@
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="55">
+      <c r="F3" s="56">
         <v>42552</v>
       </c>
-      <c r="G3" s="53"/>
+      <c r="G3" s="52"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="56"/>
-      <c r="K3" s="57"/>
+      <c r="J3" s="57"/>
+      <c r="K3" s="58"/>
     </row>
     <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="18" t="s">
@@ -4063,16 +4174,16 @@
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="53" t="s">
+      <c r="F4" s="52" t="s">
         <v>65</v>
       </c>
-      <c r="G4" s="53"/>
+      <c r="G4" s="52"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="53"/>
-      <c r="K4" s="54"/>
+      <c r="J4" s="52"/>
+      <c r="K4" s="53"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="16"/>
@@ -4098,18 +4209,18 @@
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="58" t="s">
+      <c r="C7" s="54" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="58"/>
-      <c r="E7" s="58"/>
-      <c r="F7" s="58"/>
-      <c r="G7" s="58" t="s">
+      <c r="D7" s="54"/>
+      <c r="E7" s="54"/>
+      <c r="F7" s="54"/>
+      <c r="G7" s="54" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="58"/>
-      <c r="I7" s="58"/>
-      <c r="J7" s="58"/>
+      <c r="H7" s="54"/>
+      <c r="I7" s="54"/>
+      <c r="J7" s="54"/>
       <c r="K7" s="14"/>
     </row>
     <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
@@ -4156,7 +4267,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>40.478999999999999</v>
+        <v>32.478999999999999</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -4166,7 +4277,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>55.5</v>
+        <v>45.5</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -4438,8 +4549,12 @@
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A22" s="40"/>
-      <c r="B22" s="20"/>
+      <c r="A22" s="40">
+        <v>45148</v>
+      </c>
+      <c r="B22" s="20" t="s">
+        <v>52</v>
+      </c>
       <c r="C22" s="13"/>
       <c r="D22" s="39"/>
       <c r="E22" s="9"/>
@@ -4448,14 +4563,20 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H22" s="39"/>
+      <c r="H22" s="39">
+        <v>2</v>
+      </c>
       <c r="I22" s="9"/>
       <c r="J22" s="11"/>
-      <c r="K22" s="20"/>
+      <c r="K22" s="20" t="s">
+        <v>70</v>
+      </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" s="40"/>
-      <c r="B23" s="20"/>
+      <c r="B23" s="20" t="s">
+        <v>52</v>
+      </c>
       <c r="C23" s="13"/>
       <c r="D23" s="39"/>
       <c r="E23" s="9"/>
@@ -4464,14 +4585,20 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H23" s="39"/>
+      <c r="H23" s="39">
+        <v>2</v>
+      </c>
       <c r="I23" s="9"/>
       <c r="J23" s="11"/>
-      <c r="K23" s="20"/>
+      <c r="K23" s="20" t="s">
+        <v>71</v>
+      </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" s="40"/>
-      <c r="B24" s="20"/>
+      <c r="B24" s="20" t="s">
+        <v>52</v>
+      </c>
       <c r="C24" s="13"/>
       <c r="D24" s="39"/>
       <c r="E24" s="9"/>
@@ -4480,14 +4607,20 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H24" s="39"/>
+      <c r="H24" s="39">
+        <v>2</v>
+      </c>
       <c r="I24" s="9"/>
       <c r="J24" s="11"/>
-      <c r="K24" s="20"/>
+      <c r="K24" s="20" t="s">
+        <v>72</v>
+      </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" s="40"/>
-      <c r="B25" s="20"/>
+      <c r="B25" s="20" t="s">
+        <v>52</v>
+      </c>
       <c r="C25" s="13"/>
       <c r="D25" s="39"/>
       <c r="E25" s="9"/>
@@ -4496,16 +4629,26 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H25" s="39"/>
+      <c r="H25" s="39">
+        <v>2</v>
+      </c>
       <c r="I25" s="9"/>
       <c r="J25" s="11"/>
-      <c r="K25" s="20"/>
+      <c r="K25" s="20" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A26" s="40"/>
-      <c r="B26" s="20"/>
+      <c r="A26" s="40">
+        <v>45170</v>
+      </c>
+      <c r="B26" s="20" t="s">
+        <v>68</v>
+      </c>
       <c r="C26" s="13"/>
-      <c r="D26" s="39"/>
+      <c r="D26" s="39">
+        <v>8</v>
+      </c>
       <c r="E26" s="9"/>
       <c r="F26" s="20"/>
       <c r="G26" s="13" t="str">
@@ -4515,11 +4658,15 @@
       <c r="H26" s="39"/>
       <c r="I26" s="9"/>
       <c r="J26" s="11"/>
-      <c r="K26" s="20"/>
+      <c r="K26" s="20" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" s="40"/>
-      <c r="B27" s="20"/>
+      <c r="B27" s="20" t="s">
+        <v>52</v>
+      </c>
       <c r="C27" s="13"/>
       <c r="D27" s="39"/>
       <c r="E27" s="9"/>
@@ -4528,10 +4675,14 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H27" s="39"/>
+      <c r="H27" s="39">
+        <v>2</v>
+      </c>
       <c r="I27" s="9"/>
       <c r="J27" s="11"/>
-      <c r="K27" s="20"/>
+      <c r="K27" s="20" t="s">
+        <v>75</v>
+      </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" s="40"/>
@@ -5234,7 +5385,7 @@
   <dimension ref="A1:L67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="J34" sqref="J34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5307,21 +5458,23 @@
         <f>SUMIFS(F7:F14,E7:E14,E3)+SUMIFS(D7:D66,C7:C66,F3)+D3</f>
         <v>0</v>
       </c>
-      <c r="J3" s="47"/>
+      <c r="J3" s="47">
+        <v>4</v>
+      </c>
       <c r="K3" s="35">
         <f>J4-1</f>
-        <v>-1</v>
-      </c>
-      <c r="L3" s="45" t="str">
+        <v>3</v>
+      </c>
+      <c r="L3" s="45">
         <f>IF($J$4=1,1.25,IF(ISBLANK($J$3),"---",1.25-VLOOKUP($K$3,$I$8:$K$37,2)))</f>
-        <v>---</v>
+        <v>1.125</v>
       </c>
     </row>
     <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="G4" s="33"/>
       <c r="J4" s="1" t="str">
         <f>IF(TEXT(J3,"D")=1,1,TEXT(J3,"D"))</f>
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.3">
